--- a/opencartapplication/Resource/Testdata111.xlsx
+++ b/opencartapplication/Resource/Testdata111.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\demoopencartrepo\opencartapplication\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD93C46-C015-4C87-B499-6AAD3CC931CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E6415-8D29-4457-A80D-0A3DEF55F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{ECAC509E-1B4C-4E43-B5C4-8C09DD57D651}"/>
+    <workbookView xWindow="4575" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{ECAC509E-1B4C-4E43-B5C4-8C09DD57D651}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="fpass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -55,13 +56,15 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,46 +423,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3C245-3256-4E84-A07F-5727F0CC6328}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -467,10 +470,10 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -481,7 +484,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -494,4 +497,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DF3886-E89A-40C8-B8B0-1639ACFDCFE7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{86DE48EC-77E9-4060-8C22-29514CE07A54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>